--- a/testData/bdor_test.xlsx
+++ b/testData/bdor_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85F6FB8-31E3-8642-8C13-46A251FAEE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007F74DF-BAB5-EE4B-A85B-44976F2FB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35420" yWindow="-21100" windowWidth="19200" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
   <si>
     <t>計劃單號</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t>12/31/23</t>
-  </si>
-  <si>
-    <t>10/25/23</t>
   </si>
   <si>
     <t>09/20/23</t>
@@ -841,12 +838,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CH36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomLeft" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,12 +1157,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ2" s="7">
         <v>12.903</v>
@@ -1177,12 +1175,12 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ3" s="7">
         <v>15.971</v>
@@ -1195,12 +1193,12 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ4" s="7">
         <v>11.098000000000001</v>
@@ -1213,12 +1211,12 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W5" s="2" t="s">
         <v>87</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ5" s="7">
         <v>4.5750000000000002</v>
@@ -1231,12 +1229,12 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W6" s="3">
         <v>45211</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AQ6" s="7">
         <v>0.878</v>
@@ -1249,12 +1247,12 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W7" s="4" t="s">
         <v>88</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AQ7" s="7">
         <v>6.0460000000000003</v>
@@ -1267,12 +1265,12 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W8" s="4" t="s">
         <v>89</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AQ8" s="7">
         <v>2.101</v>
@@ -1285,12 +1283,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ9" s="8">
         <v>1.641</v>
@@ -1305,12 +1303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W10" s="5" t="s">
         <v>89</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ10" s="8">
         <v>3.581</v>
@@ -1325,12 +1323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W11" s="5" t="s">
         <v>90</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ11" s="7">
         <v>1.663</v>
@@ -1345,12 +1343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W12" s="5">
         <v>45203</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ12" s="7">
         <v>8.2989999999999995</v>
@@ -1365,12 +1363,12 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W13" s="5">
         <v>45203</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ13" s="8">
         <v>8.2989999999999995</v>
@@ -1383,12 +1381,12 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W14" s="5">
         <v>45207</v>
       </c>
       <c r="Y14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ14" s="8">
         <v>1.6240000000000001</v>
@@ -1401,12 +1399,12 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W15" s="5">
         <v>45207</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ15" s="8">
         <v>1.6240000000000001</v>
@@ -1419,12 +1417,12 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W16" s="6" t="s">
         <v>91</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ16" s="9">
         <v>0.26400000000000001</v>
@@ -1437,12 +1435,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="17" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="17" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W17" s="6" t="s">
         <v>91</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AQ17" s="9">
         <v>0.26400000000000001</v>
@@ -1455,12 +1453,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="18" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="18" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W18" s="4" t="s">
         <v>92</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ18" s="7">
         <v>2.4900000000000002</v>
@@ -1473,12 +1471,12 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="19" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="19" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W19" s="4" t="s">
         <v>92</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ19" s="7">
         <v>3.09</v>
@@ -1491,12 +1489,12 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="20" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W20" s="4">
         <v>45203</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AQ20" s="7">
         <v>37.35</v>
@@ -1509,12 +1507,12 @@
         <v>37.35</v>
       </c>
     </row>
-    <row r="21" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W21" s="3" t="s">
         <v>93</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AQ21" s="7">
         <v>36.308</v>
@@ -1529,10 +1527,10 @@
     </row>
     <row r="22" spans="23:54" x14ac:dyDescent="0.2">
       <c r="W22" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ22" s="7">
         <v>0.11799999999999999</v>
@@ -1547,10 +1545,10 @@
     </row>
     <row r="23" spans="23:54" x14ac:dyDescent="0.2">
       <c r="W23" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ23" s="7">
         <v>0.874</v>
@@ -1568,7 +1566,7 @@
         <v>45232</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ24" s="7">
         <v>0.46300000000000002</v>
@@ -1586,7 +1584,7 @@
         <v>45232</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AQ25" s="7">
         <v>0.46300000000000002</v>
@@ -1599,12 +1597,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="26" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="26" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W26" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ26" s="7">
         <v>6.5620000000000003</v>
@@ -1617,12 +1615,12 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="27" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="27" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W27" s="4">
         <v>45209</v>
       </c>
       <c r="Y27" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AQ27" s="7">
         <v>77.141000000000005</v>
@@ -1635,12 +1633,12 @@
         <v>77.14</v>
       </c>
     </row>
-    <row r="28" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="28" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AQ28" s="7">
         <v>4.1779999999999999</v>
@@ -1653,12 +1651,12 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="29" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="29" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AQ29" s="7">
         <v>4.4779999999999998</v>
@@ -1671,12 +1669,12 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="30" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="30" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ30">
         <v>5.66</v>
@@ -1685,12 +1683,12 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="31" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="31" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W31" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y31" t="s">
         <v>110</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>111</v>
       </c>
       <c r="AQ31">
         <v>14.711</v>
@@ -1699,12 +1697,12 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="32" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="32" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AQ32">
         <v>15.234999999999999</v>
@@ -1713,12 +1711,12 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="33" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="33" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y33" t="s">
         <v>112</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>113</v>
       </c>
       <c r="AQ33">
         <v>406.89299999999997</v>
@@ -1727,12 +1725,12 @@
         <v>406.89</v>
       </c>
     </row>
-    <row r="34" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="34" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AQ34">
         <v>0.13</v>
@@ -1741,12 +1739,12 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="35" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="35" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AQ35">
         <v>57.816000000000003</v>
@@ -1755,12 +1753,12 @@
         <v>57.82</v>
       </c>
     </row>
-    <row r="36" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="36" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W36" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y36" t="s">
         <v>116</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>117</v>
       </c>
       <c r="AQ36">
         <v>14.436</v>
@@ -1770,7 +1768,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CH1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CH36" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="24">
+      <filters>
+        <filter val="TAC11181440"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/testData/bdor_test.xlsx
+++ b/testData/bdor_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007F74DF-BAB5-EE4B-A85B-44976F2FB0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C12FE-0F60-6D48-BEAC-D8F4EDA774C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35420" yWindow="-21100" windowWidth="19200" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
   <si>
     <t>計劃單號</t>
   </si>
@@ -379,16 +379,7 @@
     <t xml:space="preserve">TAC11154940       </t>
   </si>
   <si>
-    <t xml:space="preserve">TAC00066440       </t>
-  </si>
-  <si>
     <t>10/26/23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/24/23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAC11187850       </t>
   </si>
 </sst>
 </file>
@@ -839,12 +830,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:CH36"/>
+  <dimension ref="A1:CH33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="W24" sqref="W24"/>
+      <selection pane="bottomLeft" activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1168,7 @@
     </row>
     <row r="3" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>96</v>
@@ -1195,7 +1186,7 @@
     </row>
     <row r="4" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>96</v>
@@ -1525,9 +1516,9 @@
         <v>36.31</v>
       </c>
     </row>
-    <row r="22" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="22" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y22" s="7" t="s">
         <v>103</v>
@@ -1543,9 +1534,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="23" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W23" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y23" s="7" t="s">
         <v>103</v>
@@ -1561,7 +1552,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="24" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="24" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W24" s="3">
         <v>45232</v>
       </c>
@@ -1579,7 +1570,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="25" spans="23:54" x14ac:dyDescent="0.2">
+    <row r="25" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W25" s="3">
         <v>45232</v>
       </c>
@@ -1725,53 +1716,11 @@
         <v>406.89</v>
       </c>
     </row>
-    <row r="34" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
-      <c r="W34" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ34">
-        <v>0.13</v>
-      </c>
-      <c r="BB34">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="35" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
-      <c r="W35" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ35">
-        <v>57.816000000000003</v>
-      </c>
-      <c r="BB35">
-        <v>57.82</v>
-      </c>
-    </row>
-    <row r="36" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
-      <c r="W36" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ36">
-        <v>14.436</v>
-      </c>
-      <c r="BB36">
-        <v>14.44</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:CH36" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:CH33" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="24">
       <filters>
-        <filter val="TAC11181440"/>
+        <filter val="TAC00066440"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/testData/bdor_test.xlsx
+++ b/testData/bdor_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lesleycheung/Desktop/mazen/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66C12FE-0F60-6D48-BEAC-D8F4EDA774C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892D156B-B670-D948-89DE-EFBFDEE3BEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35420" yWindow="-21100" windowWidth="19200" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
   <si>
     <t>計劃單號</t>
   </si>
@@ -361,9 +361,6 @@
     <t>TAF11178770</t>
   </si>
   <si>
-    <t xml:space="preserve">10/30/23 </t>
-  </si>
-  <si>
     <t xml:space="preserve">10/29/23 </t>
   </si>
   <si>
@@ -371,12 +368,6 @@
   </si>
   <si>
     <t xml:space="preserve">TAC00083840       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/29/23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAC11154940       </t>
   </si>
   <si>
     <t>10/26/23</t>
@@ -830,12 +821,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:CH33"/>
+  <dimension ref="A1:CH31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" zoomScale="133" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="Y41" sqref="Y41"/>
+      <selection pane="bottomLeft" activeCell="AQ32" sqref="AQ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1168,7 +1159,7 @@
     </row>
     <row r="3" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W3" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>96</v>
@@ -1186,7 +1177,7 @@
     </row>
     <row r="4" spans="1:86" hidden="1" x14ac:dyDescent="0.2">
       <c r="W4" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>96</v>
@@ -1516,9 +1507,9 @@
         <v>36.31</v>
       </c>
     </row>
-    <row r="22" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="23:54" x14ac:dyDescent="0.2">
       <c r="W22" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y22" s="7" t="s">
         <v>103</v>
@@ -1534,9 +1525,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="23:54" x14ac:dyDescent="0.2">
       <c r="W23" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y23" s="7" t="s">
         <v>103</v>
@@ -1552,7 +1543,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="24" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="23:54" x14ac:dyDescent="0.2">
       <c r="W24" s="3">
         <v>45232</v>
       </c>
@@ -1570,7 +1561,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="25" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="23:54" x14ac:dyDescent="0.2">
       <c r="W25" s="3">
         <v>45232</v>
       </c>
@@ -1662,10 +1653,10 @@
     </row>
     <row r="30" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ30">
         <v>5.66</v>
@@ -1676,10 +1667,10 @@
     </row>
     <row r="31" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
       <c r="W31" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y31" t="s">
         <v>109</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>110</v>
       </c>
       <c r="AQ31">
         <v>14.711</v>
@@ -1688,39 +1679,11 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="32" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
-      <c r="W32" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ32">
-        <v>15.234999999999999</v>
-      </c>
-      <c r="BB32">
-        <v>15.24</v>
-      </c>
-    </row>
-    <row r="33" spans="23:54" hidden="1" x14ac:dyDescent="0.2">
-      <c r="W33" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ33">
-        <v>406.89299999999997</v>
-      </c>
-      <c r="BB33">
-        <v>406.89</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:CH33" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:CH31" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="24">
       <filters>
-        <filter val="TAC00066440"/>
+        <filter val="TAC11181440"/>
       </filters>
     </filterColumn>
   </autoFilter>
